--- a/estimates/negativeIncomeTax.xlsx
+++ b/estimates/negativeIncomeTax.xlsx
@@ -901,7 +901,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
